--- a/LanQiao/历届试题/第九届蓝桥杯大赛个人赛省赛（软件类）真题/LanqiaoCA/C语言A组/2/2.xlsx
+++ b/LanQiao/历届试题/第九届蓝桥杯大赛个人赛省赛（软件类）真题/LanqiaoCA/C语言A组/2/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\c++\Game\LanQiao\历届试题\第九届蓝桥杯大赛个人赛省赛（软件类）真题\LanqiaoCA\C语言A组\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACB9049-AF11-4862-88C9-60A4932EE378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9B5BDD-8EE1-4688-9832-52166CDB06D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="864" windowWidth="16800" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -374,12 +374,17 @@
         <f>WEEKDAY(A1,2)</f>
         <v>2</v>
       </c>
+      <c r="D2" s="2">
+        <f>WEEKDAY(D1,2)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="2">
         <f>_xlfn.DAYS(D1,A1)/7</f>
         <v>5217.7142857142853</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
